--- a/Nvprof summary/similarity results/MM-Similarity.xlsx
+++ b/Nvprof summary/similarity results/MM-Similarity.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/Nvprof summary/newsimilarity results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyc/Documents/Github/GPU-DATA-PLACEMENT/Nvprof summary/similarity results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" activeTab="4"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
@@ -13282,8 +13282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56:L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13906,40 +13907,40 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="7">
         <v>0.50423600000000002</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="7">
         <v>3.6555999999999998E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="7">
         <v>3.6555999999999998E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="7">
         <v>7.4602000000000002E-2</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="7">
         <v>7.6105000000000006E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="7">
         <v>5.2566000000000002E-2</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="7">
         <v>5.1268000000000001E-2</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="7">
         <v>7.9103000000000007E-2</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="7">
         <v>6.5297999999999995E-2</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="7">
         <v>0.13456599999999999</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="7">
         <v>0.119209</v>
       </c>
       <c r="M9" t="str">
@@ -13988,40 +13989,40 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
         <v>3.5379000000000001E-2</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="7">
         <v>3.5379000000000001E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="7">
         <v>6.9189000000000001E-2</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="7">
         <v>7.3648000000000005E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="7">
         <v>5.0874000000000003E-2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="7">
         <v>4.9612000000000003E-2</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="7">
         <v>7.6554999999999998E-2</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="7">
         <v>6.3178999999999999E-2</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="7">
         <v>7.1748999999999993E-2</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="7">
         <v>7.5028999999999998E-2</v>
       </c>
       <c r="M10" t="str">
@@ -14070,40 +14071,40 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="7">
         <v>0.17724100000000001</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>5.53E-4</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="7">
         <v>5.53E-4</v>
       </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
         <v>1.1509999999999999E-3</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="7">
         <v>7.9500000000000003E-4</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="7">
         <v>7.7499999999999997E-4</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="7">
         <v>1.196E-3</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="7">
         <v>9.8700000000000003E-4</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="7">
         <v>2.0178999999999999E-2</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="7">
         <v>1.993E-2</v>
       </c>
       <c r="M11" t="str">
@@ -17747,40 +17748,40 @@
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="7">
         <v>44544000</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="7">
         <v>55572480</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="7">
         <v>55572480</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="7">
         <v>227328000</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="7">
         <v>26695680</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="7">
         <v>38645760</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="7">
         <v>39628800</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="7">
         <v>25681920</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="7">
         <v>31119360</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="7">
         <v>13701120</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" s="7">
         <v>26204160</v>
       </c>
       <c r="M56" t="str">
@@ -17829,40 +17830,40 @@
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="7">
         <v>67004682</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="7">
         <v>57603961</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="7">
         <v>57603995</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="7">
         <v>244287140</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="7">
         <v>28727357</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="7">
         <v>40677205</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="7">
         <v>41660505</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="7">
         <v>27713430</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="7">
         <v>33151391</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="7">
         <v>15544819</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="7">
         <v>29327922</v>
       </c>
       <c r="M57" t="str">
@@ -20003,7 +20004,7 @@
         <v>81.939669547647426</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P3:P68" si="6">N6/M6/$M$2</f>
+        <f t="shared" ref="P6:P68" si="6">N6/M6/$M$2</f>
         <v>0.14868619397865349</v>
       </c>
       <c r="Q6">
@@ -23657,7 +23658,7 @@
         <v>1747384941.4372032</v>
       </c>
       <c r="P69">
-        <f t="shared" ref="P67:P80" si="10">N69/M69/$M$2</f>
+        <f t="shared" ref="P69:P80" si="10">N69/M69/$M$2</f>
         <v>0.94279943734772931</v>
       </c>
       <c r="Q69">
@@ -25001,7 +25002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
